--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H2">
         <v>0.109032</v>
       </c>
       <c r="I2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N2">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O2">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P2">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q2">
-        <v>0.04171027640266666</v>
+        <v>0.07106235710933333</v>
       </c>
       <c r="R2">
-        <v>0.375392487624</v>
+        <v>0.639561213984</v>
       </c>
       <c r="S2">
-        <v>0.003351438773343249</v>
+        <v>0.004350424088671104</v>
       </c>
       <c r="T2">
-        <v>0.003351438773343248</v>
+        <v>0.004350424088671105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H3">
         <v>0.109032</v>
       </c>
       <c r="I3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O3">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P3">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q3">
-        <v>0.009774149410666665</v>
+        <v>0.009774149410666667</v>
       </c>
       <c r="R3">
-        <v>0.08796734469599998</v>
+        <v>0.087967344696</v>
       </c>
       <c r="S3">
-        <v>0.0007853571382534412</v>
+        <v>0.0005983715819757116</v>
       </c>
       <c r="T3">
-        <v>0.000785357138253441</v>
+        <v>0.0005983715819757118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H4">
         <v>0.109032</v>
       </c>
       <c r="I4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N4">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q4">
-        <v>0.013730072664</v>
+        <v>0.03817596777866667</v>
       </c>
       <c r="R4">
-        <v>0.123570653976</v>
+        <v>0.343583710008</v>
       </c>
       <c r="S4">
-        <v>0.001103217284937673</v>
+        <v>0.00233712554140468</v>
       </c>
       <c r="T4">
-        <v>0.001103217284937673</v>
+        <v>0.00233712554140468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H5">
         <v>0.109032</v>
       </c>
       <c r="I5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N5">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q5">
-        <v>0.02128214991466666</v>
+        <v>0.01938282458933333</v>
       </c>
       <c r="R5">
-        <v>0.191539349232</v>
+        <v>0.174445421304</v>
       </c>
       <c r="S5">
-        <v>0.001710029962773335</v>
+        <v>0.001186612862702907</v>
       </c>
       <c r="T5">
-        <v>0.001710029962773334</v>
+        <v>0.001186612862702908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H6">
         <v>0.109032</v>
       </c>
       <c r="I6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N6">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O6">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P6">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q6">
-        <v>0.01479881644266666</v>
+        <v>0.02026377892</v>
       </c>
       <c r="R6">
-        <v>0.133189347984</v>
+        <v>0.18237401028</v>
       </c>
       <c r="S6">
-        <v>0.001189091310417971</v>
+        <v>0.001240544720539467</v>
       </c>
       <c r="T6">
-        <v>0.001189091310417971</v>
+        <v>0.001240544720539467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I7">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J7">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N7">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O7">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P7">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q7">
-        <v>3.708395595422777</v>
+        <v>6.318043293708889</v>
       </c>
       <c r="R7">
-        <v>33.375560358805</v>
+        <v>56.86238964337999</v>
       </c>
       <c r="S7">
-        <v>0.2979711921688591</v>
+        <v>0.3867894178619645</v>
       </c>
       <c r="T7">
-        <v>0.2979711921688591</v>
+        <v>0.3867894178619646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I8">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J8">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O8">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P8">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q8">
         <v>0.8690043737327777</v>
@@ -948,10 +948,10 @@
         <v>7.821039363594998</v>
       </c>
       <c r="S8">
-        <v>0.06982487778831165</v>
+        <v>0.0532002837287125</v>
       </c>
       <c r="T8">
-        <v>0.06982487778831163</v>
+        <v>0.05320028372871251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I9">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J9">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N9">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q9">
-        <v>1.220719337855</v>
+        <v>3.394165730159444</v>
       </c>
       <c r="R9">
-        <v>10.986474040695</v>
+        <v>30.54749157143499</v>
       </c>
       <c r="S9">
-        <v>0.0980853274804859</v>
+        <v>0.2077901853256739</v>
       </c>
       <c r="T9">
-        <v>0.09808532748048591</v>
+        <v>0.2077901853256739</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I10">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J10">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N10">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q10">
-        <v>1.892162742887778</v>
+        <v>1.723296691683889</v>
       </c>
       <c r="R10">
-        <v>17.02946468599</v>
+        <v>15.509670225155</v>
       </c>
       <c r="S10">
-        <v>0.1520360958716682</v>
+        <v>0.1054998981794842</v>
       </c>
       <c r="T10">
-        <v>0.1520360958716682</v>
+        <v>0.1054998981794842</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I11">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J11">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N11">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O11">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P11">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q11">
-        <v>1.315739679681111</v>
+        <v>1.801620966691666</v>
       </c>
       <c r="R11">
-        <v>11.84165711713</v>
+        <v>16.214588700225</v>
       </c>
       <c r="S11">
-        <v>0.1057202530987683</v>
+        <v>0.1102948955111556</v>
       </c>
       <c r="T11">
-        <v>0.1057202530987683</v>
+        <v>0.1102948955111556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H12">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N12">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O12">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P12">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q12">
-        <v>0.6173692438456666</v>
+        <v>0.3990283788688889</v>
       </c>
       <c r="R12">
-        <v>5.556323194611</v>
+        <v>3.59125540982</v>
       </c>
       <c r="S12">
-        <v>0.0496058861207088</v>
+        <v>0.02442844203470131</v>
       </c>
       <c r="T12">
-        <v>0.0496058861207088</v>
+        <v>0.02442844203470132</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H13">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O13">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P13">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q13">
-        <v>0.1446708042076667</v>
+        <v>0.05488367052277777</v>
       </c>
       <c r="R13">
-        <v>1.302037237869</v>
+        <v>0.493953034705</v>
       </c>
       <c r="S13">
-        <v>0.01162436177386073</v>
+        <v>0.003359967949692749</v>
       </c>
       <c r="T13">
-        <v>0.01162436177386073</v>
+        <v>0.00335996794969275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H14">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N14">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q14">
-        <v>0.203223888921</v>
+        <v>0.2143651738294444</v>
       </c>
       <c r="R14">
-        <v>1.829015000289</v>
+        <v>1.929286564465</v>
       </c>
       <c r="S14">
-        <v>0.01632912748945237</v>
+        <v>0.0131233954787759</v>
       </c>
       <c r="T14">
-        <v>0.01632912748945237</v>
+        <v>0.01312339547877591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H15">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N15">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q15">
-        <v>0.3150049803886666</v>
+        <v>0.1088381723938889</v>
       </c>
       <c r="R15">
-        <v>2.835044823498</v>
+        <v>0.9795435515449998</v>
       </c>
       <c r="S15">
-        <v>0.02531078660038109</v>
+        <v>0.00666305236991814</v>
       </c>
       <c r="T15">
-        <v>0.0253107866003811</v>
+        <v>0.00666305236991814</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H16">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N16">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O16">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P16">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q16">
-        <v>0.2190427612806667</v>
+        <v>0.1137848951416666</v>
       </c>
       <c r="R16">
-        <v>1.971384851526</v>
+        <v>1.024064056275</v>
       </c>
       <c r="S16">
-        <v>0.0176001807345794</v>
+        <v>0.006965889802805421</v>
       </c>
       <c r="T16">
-        <v>0.0176001807345794</v>
+        <v>0.006965889802805422</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H17">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I17">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J17">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N17">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O17">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P17">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q17">
-        <v>0.1806133161614444</v>
+        <v>0.2861375681444445</v>
       </c>
       <c r="R17">
-        <v>1.625519845453</v>
+        <v>2.5752381133</v>
       </c>
       <c r="S17">
-        <v>0.01451235817576285</v>
+        <v>0.01751728791115298</v>
       </c>
       <c r="T17">
-        <v>0.01451235817576285</v>
+        <v>0.01751728791115298</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H18">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I18">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J18">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O18">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P18">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q18">
-        <v>0.04232389928744445</v>
+        <v>0.03935629856388889</v>
       </c>
       <c r="R18">
-        <v>0.380915093587</v>
+        <v>0.354206687075</v>
       </c>
       <c r="S18">
-        <v>0.003400743637890335</v>
+        <v>0.00240938516927954</v>
       </c>
       <c r="T18">
-        <v>0.003400743637890335</v>
+        <v>0.00240938516927954</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H19">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I19">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J19">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N19">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O19">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P19">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q19">
-        <v>0.059453788583</v>
+        <v>0.1537182134972222</v>
       </c>
       <c r="R19">
-        <v>0.535084097247</v>
+        <v>1.383463921475</v>
       </c>
       <c r="S19">
-        <v>0.004777137661607041</v>
+        <v>0.009410600014813905</v>
       </c>
       <c r="T19">
-        <v>0.004777137661607042</v>
+        <v>0.009410600014813907</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H20">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I20">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J20">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N20">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O20">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P20">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q20">
-        <v>0.09215569885044445</v>
+        <v>0.07804630351944444</v>
       </c>
       <c r="R20">
-        <v>0.8294012896540001</v>
+        <v>0.7024167316749999</v>
       </c>
       <c r="S20">
-        <v>0.007404750314533456</v>
+        <v>0.004777979969624918</v>
       </c>
       <c r="T20">
-        <v>0.007404750314533457</v>
+        <v>0.004777979969624918</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H21">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I21">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J21">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N21">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O21">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P21">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q21">
-        <v>0.06408164949977778</v>
+        <v>0.08159352795833333</v>
       </c>
       <c r="R21">
-        <v>0.576734845498</v>
+        <v>0.7343417516249999</v>
       </c>
       <c r="S21">
-        <v>0.005148988290559893</v>
+        <v>0.004995140380208009</v>
       </c>
       <c r="T21">
-        <v>0.005148988290559893</v>
+        <v>0.00499514038020801</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H22">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N22">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O22">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P22">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q22">
-        <v>0.5765690557433333</v>
+        <v>0.2418800166044444</v>
       </c>
       <c r="R22">
-        <v>5.189121501689999</v>
+        <v>2.17692014944</v>
       </c>
       <c r="S22">
-        <v>0.04632757333644934</v>
+        <v>0.01480784895982482</v>
       </c>
       <c r="T22">
-        <v>0.04632757333644934</v>
+        <v>0.01480784895982483</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H23">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O23">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P23">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q23">
-        <v>0.1351099197233333</v>
+        <v>0.03326896992888889</v>
       </c>
       <c r="R23">
-        <v>1.21598927751</v>
+        <v>0.29942072936</v>
       </c>
       <c r="S23">
-        <v>0.01085614056480152</v>
+        <v>0.002036720059274581</v>
       </c>
       <c r="T23">
-        <v>0.01085614056480152</v>
+        <v>0.002036720059274581</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H24">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N24">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O24">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P24">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q24">
-        <v>0.18979339659</v>
+        <v>0.1299422661422222</v>
       </c>
       <c r="R24">
-        <v>1.70814056931</v>
+        <v>1.16948039528</v>
       </c>
       <c r="S24">
-        <v>0.01524998161401711</v>
+        <v>0.007955041005632336</v>
       </c>
       <c r="T24">
-        <v>0.01524998161401711</v>
+        <v>0.007955041005632338</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H25">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N25">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O25">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P25">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q25">
-        <v>0.2941871917133334</v>
+        <v>0.06597470340444445</v>
       </c>
       <c r="R25">
-        <v>2.64768472542</v>
+        <v>0.5937723306399999</v>
       </c>
       <c r="S25">
-        <v>0.02363806826429935</v>
+        <v>0.004038958889191274</v>
       </c>
       <c r="T25">
-        <v>0.02363806826429935</v>
+        <v>0.004038958889191276</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H26">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N26">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O26">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P26">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q26">
-        <v>0.2045668443933333</v>
+        <v>0.06897327053333333</v>
       </c>
       <c r="R26">
-        <v>1.84110159954</v>
+        <v>0.6207594348</v>
       </c>
       <c r="S26">
-        <v>0.01643703454327769</v>
+        <v>0.00422253060281942</v>
       </c>
       <c r="T26">
-        <v>0.01643703454327769</v>
+        <v>0.004222530602819421</v>
       </c>
     </row>
   </sheetData>
